--- a/Doc/Burndown Chart.xlsx
+++ b/Doc/Burndown Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Dropbox/QUT/IFB299 Project Design Development/PORTFOLIO2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Documents/GitHub/GMS2/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E029A34-AD92-4B47-A6E3-EB37AF6BEC64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CACFD4AC-A85F-134F-B0AE-A5952E2FD0D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="460" windowWidth="32660" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,6 +389,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,6 +1971,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
       <c r="B24">
         <v>0</v>
       </c>
